--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1371,7 +1371,7 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
@@ -2045,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
         <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1699,43 +1699,43 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -1744,7 +1744,7 @@
         <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="n">
         <v>67</v>
@@ -1756,46 +1756,46 @@
         <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA7" t="n">
         <v>251</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>301</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1308,13 +1308,13 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1371,10 +1371,10 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2045,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2078,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>23</v>
@@ -2102,16 +2102,16 @@
         <v>8.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2123,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
@@ -2147,10 +2147,10 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1675,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1875,7 +1875,7 @@
         <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
         <v>3.25</v>
@@ -2057,7 +2057,7 @@
         <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
@@ -2239,7 +2239,7 @@
         <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1875,7 +1875,7 @@
         <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
         <v>3.25</v>
@@ -2057,7 +2057,7 @@
         <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
@@ -2239,7 +2239,7 @@
         <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -2045,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -2233,10 +2233,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
@@ -2051,10 +2051,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -965,7 +965,7 @@
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T3" t="n">
         <v>2.5</v>
@@ -1484,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
         <v>17</v>
@@ -1556,16 +1556,16 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1577,7 +1577,7 @@
         <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1601,10 +1601,10 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1675,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1699,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1735,13 +1735,13 @@
         <v>81</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>101</v>
@@ -1795,7 +1795,7 @@
         <v>201</v>
       </c>
       <c r="BA7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -965,7 +965,7 @@
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -947,22 +947,22 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -977,7 +977,7 @@
         <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1129,22 +1129,22 @@
         <v>3.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1207,7 +1207,7 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN4" t="n">
         <v>5</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1335,22 +1335,22 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
         <v>19</v>
@@ -1371,10 +1371,10 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1392,10 +1392,10 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1422,7 +1422,7 @@
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
@@ -1431,7 +1431,7 @@
         <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>301</v>
@@ -1493,10 +1493,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -935,22 +935,22 @@
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -959,22 +959,22 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -989,31 +989,31 @@
         <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -1040,13 +1040,13 @@
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1058,7 +1058,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1067,10 +1067,10 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1147,7 +1147,7 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1299,7 +1299,7 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1329,16 +1329,16 @@
         <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T5" t="n">
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
@@ -1511,7 +1511,7 @@
         <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T6" t="n">
         <v>2.5</v>
@@ -2051,10 +2051,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -965,10 +965,10 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -1147,7 +1147,7 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1329,7 +1329,7 @@
         <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
         <v>2.5</v>
@@ -1511,7 +1511,7 @@
         <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -947,16 +947,16 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
@@ -965,10 +965,10 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -1147,7 +1147,7 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1299,22 +1299,22 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1329,7 +1329,7 @@
         <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T5" t="n">
         <v>2.5</v>
@@ -1344,13 +1344,13 @@
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>19</v>
@@ -1422,7 +1422,7 @@
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
@@ -1431,7 +1431,7 @@
         <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -965,10 +965,10 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -1147,7 +1147,7 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1299,52 +1299,52 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1359,7 +1359,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1371,7 +1371,7 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
@@ -1398,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1413,7 +1413,7 @@
         <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1422,7 +1422,7 @@
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
@@ -1431,7 +1431,7 @@
         <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>301</v>
@@ -2030,7 +2030,7 @@
         <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2057,16 +2057,16 @@
         <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
         <v>10</v>
@@ -2084,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -2093,13 +2093,13 @@
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
@@ -2138,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
         <v>3.4</v>
@@ -2245,16 +2245,16 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -2275,7 +2275,7 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -2296,7 +2296,7 @@
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>151</v>
@@ -2308,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2341,7 +2341,7 @@
         <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -828,7 +828,7 @@
         <v>8.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -837,10 +837,10 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1147,10 +1147,10 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1159,10 +1159,10 @@
         <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
@@ -1198,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
@@ -1228,7 +1228,7 @@
         <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1675,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -765,16 +765,16 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1126,7 +1126,7 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1240,7 +1240,7 @@
         <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1308,13 +1308,13 @@
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1344,10 +1344,10 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
@@ -1365,7 +1365,7 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1434,7 +1434,7 @@
         <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -2057,7 +2057,7 @@
         <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T9" t="n">
         <v>2.75</v>
@@ -2239,7 +2239,7 @@
         <v>2.08</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1311,10 +1311,10 @@
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
@@ -1490,13 +1490,13 @@
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1598,7 +1598,7 @@
         <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>6.5</v>
@@ -2057,7 +2057,7 @@
         <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
         <v>2.75</v>
@@ -2239,7 +2239,7 @@
         <v>2.08</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -944,13 +944,13 @@
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -965,22 +965,22 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -1010,7 +1010,7 @@
         <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1019,10 +1019,10 @@
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -1034,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1046,13 +1046,13 @@
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>5.5</v>
@@ -1061,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>81</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1126,7 +1126,7 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1240,7 +1240,7 @@
         <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1126,7 +1126,7 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1240,7 +1240,7 @@
         <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1308,7 +1308,7 @@
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1344,7 +1344,7 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1365,7 +1365,7 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1493,10 +1493,10 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -944,7 +944,7 @@
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -977,7 +977,7 @@
         <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
         <v>8.5</v>
@@ -1010,7 +1010,7 @@
         <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>5.5</v>
@@ -1061,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1493,10 +1493,10 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -753,7 +753,7 @@
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -828,7 +828,7 @@
         <v>8.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -837,10 +837,10 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -977,13 +977,13 @@
         <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
         <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>19</v>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>8.5</v>
@@ -1049,10 +1049,10 @@
         <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>5.5</v>
@@ -1061,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>81</v>
@@ -1111,88 +1111,88 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.2</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
         <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
         <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
         <v>10</v>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1222,25 +1222,25 @@
         <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
         <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1252,7 +1252,7 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,73 +1335,73 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
         <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1413,28 +1413,28 @@
         <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1475,97 +1475,97 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
         <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1577,34 +1577,34 @@
         <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1613,7 +1613,7 @@
         <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
         <v>501</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1842,19 +1842,19 @@
         <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
         <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="n">
         <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1896,13 +1896,13 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
@@ -1911,10 +1911,10 @@
         <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
@@ -1923,19 +1923,19 @@
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN8" t="n">
         <v>3.25</v>
@@ -1959,13 +1959,13 @@
         <v>3.25</v>
       </c>
       <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
         <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>8.5</v>
       </c>
       <c r="AX8" t="n">
         <v>41</v>
@@ -1980,7 +1980,7 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -2051,10 +2051,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
         <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2251,13 +2251,13 @@
         <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
@@ -2290,10 +2290,10 @@
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -2302,7 +2302,7 @@
         <v>151</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
         <v>12</v>
@@ -2326,16 +2326,16 @@
         <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
@@ -2344,7 +2344,7 @@
         <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -965,7 +965,7 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T3" t="n">
         <v>2.25</v>
@@ -1117,7 +1117,7 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1147,7 +1147,7 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T4" t="n">
         <v>2.2</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
@@ -1329,7 +1329,7 @@
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T5" t="n">
         <v>2.5</v>
@@ -1493,10 +1493,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -2039,22 +2039,22 @@
         <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2206,7 +2206,7 @@
         <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
         <v>3.1</v>
@@ -2215,10 +2215,10 @@
         <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2227,16 +2227,16 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2245,13 +2245,13 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
         <v>12</v>
@@ -2275,13 +2275,13 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2296,19 +2296,19 @@
         <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
         <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2317,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
@@ -2326,16 +2326,16 @@
         <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
         <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
@@ -2344,7 +2344,7 @@
         <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -944,13 +944,13 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -959,13 +959,13 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
         <v>2.25</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1010,7 +1010,7 @@
         <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1147,7 +1147,7 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
         <v>2.2</v>
@@ -1329,7 +1329,7 @@
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
         <v>2.5</v>
@@ -1478,16 +1478,16 @@
         <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
@@ -1511,19 +1511,19 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X6" t="n">
         <v>7</v>
@@ -1568,7 +1568,7 @@
         <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM6" t="n">
         <v>201</v>
@@ -1586,13 +1586,13 @@
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1839,55 +1839,55 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
         <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
         <v>6.5</v>
@@ -1899,25 +1899,25 @@
         <v>8.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
@@ -1935,7 +1935,7 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AN8" t="n">
         <v>3.25</v>
@@ -1944,10 +1944,10 @@
         <v>6.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1956,13 +1956,13 @@
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>9</v>
@@ -1980,7 +1980,7 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -2221,10 +2221,10 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -947,22 +947,22 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1010,7 +1010,7 @@
         <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.25</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1135,16 +1135,16 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1168,13 +1168,13 @@
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
         <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1189,7 +1189,7 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH4" t="n">
         <v>9.5</v>
@@ -1216,10 +1216,10 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
         <v>126</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
         <v>15</v>
@@ -1478,7 +1478,7 @@
         <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>5.25</v>
@@ -1499,22 +1499,22 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -1523,7 +1523,7 @@
         <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
         <v>7</v>
@@ -1586,13 +1586,13 @@
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1851,7 +1851,7 @@
         <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
@@ -1863,16 +1863,16 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
         <v>1.3</v>
@@ -1893,7 +1893,7 @@
         <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>8.5</v>
@@ -1941,7 +1941,7 @@
         <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1129,16 +1129,16 @@
         <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.88</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
         <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1517,10 +1517,10 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1553,7 +1553,7 @@
         <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
@@ -1568,7 +1568,7 @@
         <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>201</v>
@@ -1580,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -2209,16 +2209,16 @@
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2293,7 +2293,7 @@
         <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2329,10 +2329,10 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2341,7 +2341,7 @@
         <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -828,7 +828,7 @@
         <v>8.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -837,10 +837,10 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
@@ -932,13 +932,13 @@
         <v>2.1</v>
       </c>
       <c r="H3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -947,34 +947,34 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -995,19 +995,19 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
@@ -1046,7 +1046,7 @@
         <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
         <v>9.5</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -2051,22 +2051,22 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
         <v>10</v>
@@ -2078,55 +2078,55 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN9" t="n">
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
@@ -2138,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
@@ -2147,10 +2147,10 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -935,10 +935,10 @@
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -947,10 +947,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -1007,10 +1007,10 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1028,7 +1028,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -1058,13 +1058,13 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.8</v>
@@ -1854,13 +1854,13 @@
         <v>2.6</v>
       </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
@@ -1875,10 +1875,10 @@
         <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.95</v>
@@ -1887,7 +1887,7 @@
         <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>6.5</v>
@@ -1908,10 +1908,10 @@
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1956,7 +1956,7 @@
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX8" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -944,13 +944,13 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -971,13 +971,13 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>8.5</v>
@@ -989,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1007,7 +1007,7 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
@@ -1049,7 +1049,7 @@
         <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
         <v>8.5</v>
@@ -1869,25 +1869,25 @@
         <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
         <v>6.5</v>
@@ -1902,13 +1902,13 @@
         <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1926,7 +1926,7 @@
         <v>26</v>
       </c>
       <c r="AJ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -1935,7 +1935,7 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
         <v>3.25</v>
@@ -1956,10 +1956,10 @@
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -932,7 +932,7 @@
         <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>4.1</v>
@@ -944,25 +944,25 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -971,13 +971,13 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
         <v>8.5</v>
@@ -989,13 +989,13 @@
         <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1007,7 +1007,7 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
@@ -1031,7 +1031,7 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1049,7 +1049,7 @@
         <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1058,7 +1058,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1126,25 +1126,25 @@
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1168,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
         <v>34</v>
@@ -1195,10 +1195,10 @@
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
@@ -1216,10 +1216,10 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
         <v>126</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
         <v>15</v>
@@ -1249,7 +1249,7 @@
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
         <v>301</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1493,10 +1493,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1553,7 +1553,7 @@
         <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
@@ -1580,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.91</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
         <v>8</v>
@@ -1726,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1747,7 +1747,7 @@
         <v>101</v>
       </c>
       <c r="AK7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
         <v>67</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2075,7 +2075,7 @@
         <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>29</v>
@@ -2084,7 +2084,7 @@
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -2099,10 +2099,10 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>9.5</v>
@@ -2162,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -828,7 +828,7 @@
         <v>8.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -932,7 +932,7 @@
         <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
         <v>4.1</v>
@@ -953,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1031,7 +1031,7 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1058,7 +1058,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1126,13 +1126,13 @@
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1168,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
         <v>34</v>
@@ -1195,10 +1195,10 @@
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
@@ -1216,10 +1216,10 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
         <v>126</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
         <v>15</v>
@@ -1249,7 +1249,7 @@
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>301</v>
@@ -1478,19 +1478,19 @@
         <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1505,22 +1505,22 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.53</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1541,31 +1541,31 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1574,28 +1574,28 @@
         <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
         <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1604,7 +1604,7 @@
         <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1613,7 +1613,7 @@
         <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -944,13 +944,13 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -971,22 +971,22 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1013,10 +1013,10 @@
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1031,7 +1031,7 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1049,13 +1049,13 @@
         <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
@@ -1129,10 +1129,10 @@
         <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1141,10 +1141,10 @@
         <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1311,22 +1311,22 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -2042,19 +2042,19 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -977,19 +977,19 @@
         <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1007,16 +1007,16 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1028,10 +1028,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1055,10 +1055,10 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1129,16 +1129,16 @@
         <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.88</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1329,10 +1329,10 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
         <v>2.2</v>
@@ -1344,25 +1344,25 @@
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,16 +1371,16 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1392,25 +1392,25 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1422,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
@@ -2051,25 +2051,25 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -2087,10 +2087,10 @@
         <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2114,7 +2114,7 @@
         <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>151</v>
@@ -2126,25 +2126,25 @@
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
         <v>4.5</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -2254,10 +2254,10 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
@@ -2290,7 +2290,7 @@
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
@@ -2323,7 +2323,7 @@
         <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -792,7 +792,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -947,10 +947,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -971,10 +971,10 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1338,7 +1338,7 @@
         <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1520,7 +1520,7 @@
         <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1702,7 +1702,7 @@
         <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1884,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W8" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -792,7 +792,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -971,10 +971,10 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1338,7 +1338,7 @@
         <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1520,7 +1520,7 @@
         <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1702,7 +1702,7 @@
         <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1884,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
         <v>7.5</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
@@ -2111,7 +2111,7 @@
         <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>23</v>
@@ -2165,7 +2165,7 @@
         <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -2254,10 +2254,10 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
@@ -2290,7 +2290,7 @@
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
@@ -2323,7 +2323,7 @@
         <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1135,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
         <v>2.88</v>
@@ -1153,25 +1153,25 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
         <v>15</v>
       </c>
-      <c r="Y4" t="n">
-        <v>13</v>
-      </c>
       <c r="Z4" t="n">
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1192,13 +1192,13 @@
         <v>5.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
         <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
@@ -1210,10 +1210,10 @@
         <v>900</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
@@ -1222,7 +1222,7 @@
         <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS4" t="n">
         <v>351</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
         <v>2.63</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1317,34 +1317,34 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.53</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1359,28 +1359,28 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1392,13 +1392,13 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1407,22 +1407,22 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -2021,64 +2021,64 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
         <v>3</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="U9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
         <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>11</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
@@ -2087,10 +2087,10 @@
         <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2105,22 +2105,22 @@
         <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>151</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2129,25 +2129,25 @@
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2162,10 +2162,10 @@
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2221,22 +2221,22 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1111,64 +1111,64 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.57</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="n">
         <v>41</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1192,16 +1192,16 @@
         <v>5.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1210,16 +1210,16 @@
         <v>900</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="n">
         <v>151</v>
@@ -1228,7 +1228,7 @@
         <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1237,22 +1237,22 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1317,10 +1317,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
         <v>2.6</v>
@@ -1499,16 +1499,16 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2072,19 +2072,19 @@
         <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -2099,16 +2099,16 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>19</v>
@@ -2120,16 +2120,16 @@
         <v>151</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
@@ -2147,7 +2147,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2162,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
@@ -2206,19 +2206,19 @@
         <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2227,16 +2227,16 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2245,13 +2245,13 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>12</v>
@@ -2275,13 +2275,13 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2293,22 +2293,22 @@
         <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
         <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2317,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
@@ -2326,25 +2326,25 @@
         <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1335,13 +1335,13 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
         <v>7.5</v>
@@ -1365,7 +1365,7 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
@@ -1374,7 +1374,7 @@
         <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1392,13 +1392,13 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -1422,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1481,13 +1481,13 @@
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
@@ -1517,22 +1517,22 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
@@ -1541,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1556,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>17</v>
@@ -1610,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1311,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1484,7 +1484,7 @@
         <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1517,25 +1517,25 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1556,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>17</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1687,16 +1687,16 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
         <v>2.2</v>
@@ -1714,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
@@ -1723,16 +1723,16 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
         <v>17</v>
@@ -1741,49 +1741,49 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
         <v>41</v>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1344,16 +1344,16 @@
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1380,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1395,16 +1395,16 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -798,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -825,22 +825,22 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
@@ -849,10 +849,10 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -876,7 +876,7 @@
         <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -953,10 +953,10 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.88</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1344,13 +1344,13 @@
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1371,10 +1371,10 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1392,7 +1392,7 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -753,34 +753,34 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -789,10 +789,10 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>8</v>
@@ -831,7 +831,7 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -840,7 +840,7 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
@@ -861,16 +861,16 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>5.5</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -965,10 +965,10 @@
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
         <v>2.38</v>
@@ -983,10 +983,10 @@
         <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
@@ -1007,10 +1007,10 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1034,19 +1034,19 @@
         <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1299,7 +1299,7 @@
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1311,10 +1311,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1344,13 +1344,13 @@
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1392,7 +1392,7 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1431,7 +1431,7 @@
         <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -959,10 +959,10 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -1675,22 +1675,22 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -971,22 +971,22 @@
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
@@ -1004,16 +1004,16 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
         <v>17</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -1058,13 +1058,13 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1517,106 +1517,106 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
         <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
         <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>81</v>
       </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>101</v>
       </c>
-      <c r="BA6" t="n">
-        <v>151</v>
-      </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1681,16 +1681,16 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -947,16 +947,16 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
         <v>3.1</v>
@@ -983,7 +983,7 @@
         <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>19</v>
@@ -995,13 +995,13 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1028,7 +1028,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -1040,7 +1040,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
         <v>351</v>
@@ -1052,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
         <v>5.5</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1499,85 +1499,85 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
@@ -1592,31 +1592,31 @@
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1675,10 +1675,10 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1699,31 +1699,31 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
@@ -1738,7 +1738,7 @@
         <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
@@ -1759,7 +1759,7 @@
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
         <v>41</v>
@@ -1795,10 +1795,10 @@
         <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.67</v>
@@ -971,22 +971,22 @@
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
@@ -1007,22 +1007,22 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
         <v>19</v>
       </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -1031,16 +1031,16 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>351</v>
@@ -1049,25 +1049,25 @@
         <v>2.1</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1735,7 +1735,7 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>34</v>
@@ -1759,7 +1759,7 @@
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1795,7 +1795,7 @@
         <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -959,10 +959,10 @@
         <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
         <v>7.5</v>
@@ -1675,13 +1675,13 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
@@ -1735,7 +1735,7 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>34</v>
@@ -1759,7 +1759,7 @@
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1795,7 +1795,7 @@
         <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1675,13 +1675,13 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
@@ -1699,31 +1699,31 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
@@ -1738,7 +1738,7 @@
         <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
@@ -1753,13 +1753,13 @@
         <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN7" t="n">
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
         <v>41</v>
@@ -1795,7 +1795,7 @@
         <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-14.xlsx
@@ -1678,7 +1678,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1723,22 +1723,22 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
